--- a/auto/copy_allpapers_from_tencentexcel.xlsx
+++ b/auto/copy_allpapers_from_tencentexcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1612">
   <si>
     <t>题目</t>
   </si>
@@ -4827,6 +4827,54 @@
   </si>
   <si>
     <t>2021-jmcc-liwei.pdf</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料基因工程加速新材料设计与研发</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙志梅</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>王冠杰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙志梅</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙志梅, 王冠杰, 张烜广, 周健</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京航空航天大学学报</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>北航出版社</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1575-1588</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://doi.org/10.13700/j.bh.1001-5965.2022.0318</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_beihang70MGE.pdf</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -5687,13 +5735,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="Q228" sqref="Q228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N258" sqref="N258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="15" width="9" style="34"/>
+    <col min="1" max="13" width="9" style="34"/>
+    <col min="14" max="14" width="37.75" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -17609,20 +17660,51 @@
       </c>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I255" s="1">
+        <v>48</v>
+      </c>
+      <c r="J255" s="1">
+        <v>9</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L255" s="1">
+        <v>2022</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="N255" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O255" s="34" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
@@ -17803,9 +17885,10 @@
     <hyperlink ref="N252" r:id="rId139"/>
     <hyperlink ref="N253" r:id="rId140"/>
     <hyperlink ref="N254" r:id="rId141"/>
+    <hyperlink ref="N255" r:id="rId142"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId142"/>
-  <drawing r:id="rId143"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId143"/>
+  <drawing r:id="rId144"/>
 </worksheet>
 </file>